--- a/state_results/Rivers/PohanginaatMaisReach_69c9d4f609.xlsx
+++ b/state_results/Rivers/PohanginaatMaisReach_69c9d4f609.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U256"/>
+  <dimension ref="A1:U277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,10 +570,10 @@
         <v>1.335</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9025989685219</v>
+        <v>1.94823620226522</v>
       </c>
       <c r="H2" t="n">
-        <v>9.93156135587644</v>
+        <v>12.4972837741906</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
@@ -651,7 +651,7 @@
         <v>0.014</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0298118538592509</v>
+        <v>0.0298161947263993</v>
       </c>
       <c r="H3" t="n">
         <v>0.87</v>
@@ -732,7 +732,7 @@
         <v>0.014</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0298118538592509</v>
+        <v>0.0298161947263993</v>
       </c>
       <c r="H4" t="n">
         <v>0.87</v>
@@ -1153,7 +1153,7 @@
         <v>0.0007</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0041842050451001</v>
+        <v>0.0041885050077401</v>
       </c>
       <c r="H9" t="n">
         <v>0.07905832747707869</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00066</v>
+        <v>0.00067</v>
       </c>
       <c r="M9" t="n">
         <v>0.00564</v>
@@ -1234,7 +1234,7 @@
         <v>0.0007</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0041842050451001</v>
+        <v>0.0041885050077401</v>
       </c>
       <c r="H10" t="n">
         <v>0.07905832747707869</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00066</v>
+        <v>0.00067</v>
       </c>
       <c r="M10" t="n">
         <v>0.00564</v>
@@ -1315,7 +1315,7 @@
         <v>0.093</v>
       </c>
       <c r="G11" t="n">
-        <v>0.127339078571</v>
+        <v>0.127399175281297</v>
       </c>
       <c r="H11" t="n">
         <v>0.8100000000000001</v>
@@ -1396,7 +1396,7 @@
         <v>0.093</v>
       </c>
       <c r="G12" t="n">
-        <v>0.127339078571</v>
+        <v>0.127399175281297</v>
       </c>
       <c r="H12" t="n">
         <v>0.8100000000000001</v>
@@ -1473,7 +1473,7 @@
         <v>0.09</v>
       </c>
       <c r="G13" t="n">
-        <v>0.127561464971402</v>
+        <v>0.127572108452619</v>
       </c>
       <c r="H13" t="n">
         <v>0.8149999999999999</v>
@@ -1550,7 +1550,7 @@
         <v>0.09</v>
       </c>
       <c r="G14" t="n">
-        <v>0.127561464971402</v>
+        <v>0.127572108452619</v>
       </c>
       <c r="H14" t="n">
         <v>0.8149999999999999</v>
@@ -1631,10 +1631,10 @@
         <v>1.35</v>
       </c>
       <c r="G15" t="n">
-        <v>2.09301586472484</v>
+        <v>2.22808141756137</v>
       </c>
       <c r="H15" t="n">
-        <v>9.93156135587644</v>
+        <v>12.4972837741906</v>
       </c>
       <c r="I15" t="n">
         <v>5.9</v>
@@ -1712,7 +1712,7 @@
         <v>0.014</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0136906691948885</v>
+        <v>0.01369627715291</v>
       </c>
       <c r="H16" t="n">
         <v>0.0285</v>
@@ -1793,7 +1793,7 @@
         <v>0.014</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0136906691948885</v>
+        <v>0.01369627715291</v>
       </c>
       <c r="H17" t="n">
         <v>0.0285</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0019</v>
+        <v>0.00188</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0038072825893771</v>
+        <v>0.0038135560901623</v>
       </c>
       <c r="H22" t="n">
         <v>0.0344343055156137</v>
@@ -2225,7 +2225,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.0019</v>
+        <v>0.00188</v>
       </c>
       <c r="M22" t="n">
         <v>0.00624</v>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0019</v>
+        <v>0.00188</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0038072825893771</v>
+        <v>0.0038135560901623</v>
       </c>
       <c r="H23" t="n">
         <v>0.0344343055156137</v>
@@ -2306,7 +2306,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.0019</v>
+        <v>0.00188</v>
       </c>
       <c r="M23" t="n">
         <v>0.00624</v>
@@ -2376,7 +2376,7 @@
         <v>0.093</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1106350235746</v>
+        <v>0.110685649531557</v>
       </c>
       <c r="H24" t="n">
         <v>0.5</v>
@@ -2457,7 +2457,7 @@
         <v>0.093</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1106350235746</v>
+        <v>0.110685649531557</v>
       </c>
       <c r="H25" t="n">
         <v>0.5</v>
@@ -2534,7 +2534,7 @@
         <v>0.093</v>
       </c>
       <c r="G26" t="n">
-        <v>0.115707812677385</v>
+        <v>0.115716735279947</v>
       </c>
       <c r="H26" t="n">
         <v>0.51</v>
@@ -2611,7 +2611,7 @@
         <v>0.093</v>
       </c>
       <c r="G27" t="n">
-        <v>0.115707812677385</v>
+        <v>0.115716735279947</v>
       </c>
       <c r="H27" t="n">
         <v>0.51</v>
@@ -3000,10 +3000,10 @@
         <v>1.1</v>
       </c>
       <c r="G32" t="n">
-        <v>2.02110758075645</v>
+        <v>2.16913000021121</v>
       </c>
       <c r="H32" t="n">
-        <v>9.93156135587644</v>
+        <v>12.4972837741906</v>
       </c>
       <c r="I32" t="n">
         <v>5.85</v>
@@ -3081,7 +3081,7 @@
         <v>0.012</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0123150720190643</v>
+        <v>0.0123191427291811</v>
       </c>
       <c r="H33" t="n">
         <v>0.026</v>
@@ -3162,7 +3162,7 @@
         <v>0.012</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0123150720190643</v>
+        <v>0.0123191427291811</v>
       </c>
       <c r="H34" t="n">
         <v>0.026</v>
@@ -3583,7 +3583,7 @@
         <v>0.00317</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00435934406973</v>
+        <v>0.0043650966249924</v>
       </c>
       <c r="H39" t="n">
         <v>0.0168881455095991</v>
@@ -3664,7 +3664,7 @@
         <v>0.00317</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00435934406973</v>
+        <v>0.0043650966249924</v>
       </c>
       <c r="H40" t="n">
         <v>0.0168881455095991</v>
@@ -3745,7 +3745,7 @@
         <v>0.056</v>
       </c>
       <c r="G41" t="n">
-        <v>0.09457204375611809</v>
+        <v>0.0945909623078745</v>
       </c>
       <c r="H41" t="n">
         <v>0.36</v>
@@ -3826,7 +3826,7 @@
         <v>0.056</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09457204375611809</v>
+        <v>0.0945909623078745</v>
       </c>
       <c r="H42" t="n">
         <v>0.36</v>
@@ -3903,7 +3903,7 @@
         <v>0.062</v>
       </c>
       <c r="G43" t="n">
-        <v>0.105546799528276</v>
+        <v>0.1055439817626</v>
       </c>
       <c r="H43" t="n">
         <v>0.38</v>
@@ -3980,7 +3980,7 @@
         <v>0.062</v>
       </c>
       <c r="G44" t="n">
-        <v>0.105546799528276</v>
+        <v>0.1055439817626</v>
       </c>
       <c r="H44" t="n">
         <v>0.38</v>
@@ -4450,10 +4450,10 @@
         <v>1.1</v>
       </c>
       <c r="G50" t="n">
-        <v>1.90680388191437</v>
+        <v>2.01046005638124</v>
       </c>
       <c r="H50" t="n">
-        <v>8.45666143533226</v>
+        <v>10.9429499390007</v>
       </c>
       <c r="I50" t="n">
         <v>5</v>
@@ -4531,7 +4531,7 @@
         <v>0.012</v>
       </c>
       <c r="G51" t="n">
-        <v>0.012566167491293</v>
+        <v>0.0125687909040492</v>
       </c>
       <c r="H51" t="n">
         <v>0.028</v>
@@ -4612,7 +4612,7 @@
         <v>0.012</v>
       </c>
       <c r="G52" t="n">
-        <v>0.012566167491293</v>
+        <v>0.0125687909040492</v>
       </c>
       <c r="H52" t="n">
         <v>0.028</v>
@@ -5110,7 +5110,7 @@
         <v>0.00354</v>
       </c>
       <c r="G58" t="n">
-        <v>0.004456135511646</v>
+        <v>0.0044601577310509</v>
       </c>
       <c r="H58" t="n">
         <v>0.0168881455095991</v>
@@ -5191,7 +5191,7 @@
         <v>0.00354</v>
       </c>
       <c r="G59" t="n">
-        <v>0.004456135511646</v>
+        <v>0.0044601577310509</v>
       </c>
       <c r="H59" t="n">
         <v>0.0168881455095991</v>
@@ -5272,7 +5272,7 @@
         <v>0.046</v>
       </c>
       <c r="G60" t="n">
-        <v>0.08733907588001689</v>
+        <v>0.08735458909245709</v>
       </c>
       <c r="H60" t="n">
         <v>0.4012</v>
@@ -5353,7 +5353,7 @@
         <v>0.046</v>
       </c>
       <c r="G61" t="n">
-        <v>0.08733907588001689</v>
+        <v>0.08735458909245709</v>
       </c>
       <c r="H61" t="n">
         <v>0.4012</v>
@@ -6054,13 +6054,13 @@
         <v>1.5</v>
       </c>
       <c r="G70" t="n">
-        <v>2.13150616039893</v>
+        <v>2.24150863126172</v>
       </c>
       <c r="H70" t="n">
-        <v>8.45666143533226</v>
+        <v>10.9429499390007</v>
       </c>
       <c r="I70" t="n">
-        <v>6.02426</v>
+        <v>6.12837</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -6135,7 +6135,7 @@
         <v>0.012</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0124814217285812</v>
+        <v>0.0124840451413373</v>
       </c>
       <c r="H71" t="n">
         <v>0.028</v>
@@ -6216,7 +6216,7 @@
         <v>0.012</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0124814217285812</v>
+        <v>0.0124840451413373</v>
       </c>
       <c r="H72" t="n">
         <v>0.028</v>
@@ -6714,7 +6714,7 @@
         <v>0.00296</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0046379817505745</v>
+        <v>0.004641804235515</v>
       </c>
       <c r="H78" t="n">
         <v>0.0230265350112812</v>
@@ -6795,7 +6795,7 @@
         <v>0.00296</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0046379817505745</v>
+        <v>0.004641804235515</v>
       </c>
       <c r="H79" t="n">
         <v>0.0230265350112812</v>
@@ -6876,7 +6876,7 @@
         <v>0.047</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0840785332494132</v>
+        <v>0.0840899044437655</v>
       </c>
       <c r="H80" t="n">
         <v>0.4012</v>
@@ -6887,7 +6887,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.00284</v>
+        <v>0.00301</v>
       </c>
       <c r="M80" t="n">
         <v>0.17926</v>
@@ -6957,7 +6957,7 @@
         <v>0.047</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0840785332494132</v>
+        <v>0.0840899044437655</v>
       </c>
       <c r="H81" t="n">
         <v>0.4012</v>
@@ -6968,7 +6968,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.00284</v>
+        <v>0.00301</v>
       </c>
       <c r="M81" t="n">
         <v>0.17926</v>
@@ -7732,16 +7732,16 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.83594</v>
+        <v>1.9</v>
       </c>
       <c r="G91" t="n">
-        <v>2.81278753874057</v>
+        <v>2.92508172774634</v>
       </c>
       <c r="H91" t="n">
         <v>11.9</v>
       </c>
       <c r="I91" t="n">
-        <v>8.781000000000001</v>
+        <v>11.01865</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -7752,7 +7752,7 @@
         <v>5.34</v>
       </c>
       <c r="N91" t="n">
-        <v>6.599</v>
+        <v>7.91543</v>
       </c>
       <c r="O91" t="n">
         <v>1836791</v>
@@ -7816,7 +7816,7 @@
         <v>0.012</v>
       </c>
       <c r="G92" t="n">
-        <v>0.013064168413377</v>
+        <v>0.0130654143860688</v>
       </c>
       <c r="H92" t="n">
         <v>0.028</v>
@@ -7897,7 +7897,7 @@
         <v>0.012</v>
       </c>
       <c r="G93" t="n">
-        <v>0.013064168413377</v>
+        <v>0.0130654143860688</v>
       </c>
       <c r="H93" t="n">
         <v>0.028</v>
@@ -8395,7 +8395,7 @@
         <v>0.00281</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0054054426485303</v>
+        <v>0.0054129355563982</v>
       </c>
       <c r="H99" t="n">
         <v>0.0415960993981863</v>
@@ -8406,7 +8406,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.00116</v>
+        <v>0.00119</v>
       </c>
       <c r="M99" t="n">
         <v>0.01045</v>
@@ -8476,7 +8476,7 @@
         <v>0.00281</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0054054426485303</v>
+        <v>0.0054129355563982</v>
       </c>
       <c r="H100" t="n">
         <v>0.0415960993981863</v>
@@ -8487,7 +8487,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>0.00116</v>
+        <v>0.00119</v>
       </c>
       <c r="M100" t="n">
         <v>0.01045</v>
@@ -8557,7 +8557,7 @@
         <v>0.0425</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0764310550393841</v>
+        <v>0.0764341435052017</v>
       </c>
       <c r="H101" t="n">
         <v>0.4012</v>
@@ -8638,7 +8638,7 @@
         <v>0.0425</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0764310550393841</v>
+        <v>0.0764341435052017</v>
       </c>
       <c r="H102" t="n">
         <v>0.4012</v>
@@ -8792,7 +8792,7 @@
         <v>0.054</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0882612860139295</v>
+        <v>0.08826388203646</v>
       </c>
       <c r="H104" t="n">
         <v>0.401</v>
@@ -8803,7 +8803,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.00666</v>
+        <v>0.00669</v>
       </c>
       <c r="M104" t="n">
         <v>0.1774</v>
@@ -8869,7 +8869,7 @@
         <v>0.054</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0882612860139295</v>
+        <v>0.08826388203646</v>
       </c>
       <c r="H105" t="n">
         <v>0.401</v>
@@ -8880,7 +8880,7 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.00666</v>
+        <v>0.00669</v>
       </c>
       <c r="M105" t="n">
         <v>0.1774</v>
@@ -8946,7 +8946,7 @@
         <v>0.143</v>
       </c>
       <c r="G106" t="n">
-        <v>0.217612783806638</v>
+        <v>0.217626600840327</v>
       </c>
       <c r="H106" t="n">
         <v>1.838</v>
@@ -9023,7 +9023,7 @@
         <v>0.143</v>
       </c>
       <c r="G107" t="n">
-        <v>0.217612783806638</v>
+        <v>0.217626600840327</v>
       </c>
       <c r="H107" t="n">
         <v>1.838</v>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -9413,16 +9413,16 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G112" t="n">
-        <v>3.03282731121902</v>
+        <v>3.05185659169028</v>
       </c>
       <c r="H112" t="n">
         <v>11.9</v>
       </c>
       <c r="I112" t="n">
-        <v>8.618830000000001</v>
+        <v>8.72395</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -9497,7 +9497,7 @@
         <v>0.012</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0137683964341463</v>
+        <v>0.0137695563534252</v>
       </c>
       <c r="H113" t="n">
         <v>0.037</v>
@@ -9578,7 +9578,7 @@
         <v>0.012</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0137683964341463</v>
+        <v>0.0137695563534252</v>
       </c>
       <c r="H114" t="n">
         <v>0.037</v>
@@ -10073,10 +10073,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.00146</v>
+        <v>0.00149</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0043760651297231</v>
+        <v>0.0043908854559373</v>
       </c>
       <c r="H120" t="n">
         <v>0.0415960993981863</v>
@@ -10087,10 +10087,10 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>0.00116</v>
+        <v>0.00119</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0077</v>
+        <v>0.00779</v>
       </c>
       <c r="N120" t="n">
         <v>0.01366</v>
@@ -10154,10 +10154,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.00146</v>
+        <v>0.00149</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0043760651297231</v>
+        <v>0.0043908854559373</v>
       </c>
       <c r="H121" t="n">
         <v>0.0415960993981863</v>
@@ -10168,10 +10168,10 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>0.00116</v>
+        <v>0.00119</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0077</v>
+        <v>0.00779</v>
       </c>
       <c r="N121" t="n">
         <v>0.01366</v>
@@ -10238,7 +10238,7 @@
         <v>0.03525</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0652240596379505</v>
+        <v>0.0652326216483323</v>
       </c>
       <c r="H122" t="n">
         <v>0.4012</v>
@@ -10249,7 +10249,7 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
-        <v>0.00143</v>
+        <v>0.00149</v>
       </c>
       <c r="M122" t="n">
         <v>0.14684</v>
@@ -10319,7 +10319,7 @@
         <v>0.03525</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0652240596379505</v>
+        <v>0.0652326216483323</v>
       </c>
       <c r="H123" t="n">
         <v>0.4012</v>
@@ -10330,7 +10330,7 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>0.00143</v>
+        <v>0.00149</v>
       </c>
       <c r="M123" t="n">
         <v>0.14684</v>
@@ -10473,7 +10473,7 @@
         <v>0.0445</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0752305776253121</v>
+        <v>0.0752327676787827</v>
       </c>
       <c r="H125" t="n">
         <v>0.401</v>
@@ -10484,7 +10484,7 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.00536</v>
+        <v>0.0054</v>
       </c>
       <c r="M125" t="n">
         <v>0.1589</v>
@@ -10550,7 +10550,7 @@
         <v>0.0445</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0752305776253121</v>
+        <v>0.0752327676787827</v>
       </c>
       <c r="H126" t="n">
         <v>0.401</v>
@@ -10561,7 +10561,7 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.00536</v>
+        <v>0.0054</v>
       </c>
       <c r="M126" t="n">
         <v>0.1589</v>
@@ -10627,7 +10627,7 @@
         <v>0.14</v>
       </c>
       <c r="G127" t="n">
-        <v>0.203612783806638</v>
+        <v>0.203626600840327</v>
       </c>
       <c r="H127" t="n">
         <v>1.838</v>
@@ -10704,7 +10704,7 @@
         <v>0.14</v>
       </c>
       <c r="G128" t="n">
-        <v>0.203612783806638</v>
+        <v>0.203626600840327</v>
       </c>
       <c r="H128" t="n">
         <v>1.838</v>
@@ -11097,13 +11097,13 @@
         <v>2.2</v>
       </c>
       <c r="G133" t="n">
-        <v>3.06462574357821</v>
+        <v>3.06688401418002</v>
       </c>
       <c r="H133" t="n">
         <v>11.9</v>
       </c>
       <c r="I133" t="n">
-        <v>8.618830000000001</v>
+        <v>8.72395</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -11178,7 +11178,7 @@
         <v>0.0145</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0150517297674796</v>
+        <v>0.0150528896867585</v>
       </c>
       <c r="H134" t="n">
         <v>0.037</v>
@@ -11259,7 +11259,7 @@
         <v>0.0145</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0150517297674796</v>
+        <v>0.0150528896867585</v>
       </c>
       <c r="H135" t="n">
         <v>0.037</v>
@@ -11754,10 +11754,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.00149</v>
+        <v>0.00153</v>
       </c>
       <c r="G141" t="n">
-        <v>0.003391955603757</v>
+        <v>0.003415078661884</v>
       </c>
       <c r="H141" t="n">
         <v>0.0415960993981863</v>
@@ -11768,13 +11768,13 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.00121</v>
+        <v>0.00124</v>
       </c>
       <c r="M141" t="n">
         <v>0.00325</v>
       </c>
       <c r="N141" t="n">
-        <v>0.00778</v>
+        <v>0.00795</v>
       </c>
       <c r="O141" t="n">
         <v>1836791</v>
@@ -11835,10 +11835,10 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.00149</v>
+        <v>0.00153</v>
       </c>
       <c r="G142" t="n">
-        <v>0.003391955603757</v>
+        <v>0.003415078661884</v>
       </c>
       <c r="H142" t="n">
         <v>0.0415960993981863</v>
@@ -11849,13 +11849,13 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.00121</v>
+        <v>0.00124</v>
       </c>
       <c r="M142" t="n">
         <v>0.00325</v>
       </c>
       <c r="N142" t="n">
-        <v>0.00778</v>
+        <v>0.00795</v>
       </c>
       <c r="O142" t="n">
         <v>1836791</v>
@@ -11919,7 +11919,7 @@
         <v>0.03725</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0696060481254579</v>
+        <v>0.06961614418722251</v>
       </c>
       <c r="H143" t="n">
         <v>0.4012</v>
@@ -11930,7 +11930,7 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
-        <v>0.00143</v>
+        <v>0.00149</v>
       </c>
       <c r="M143" t="n">
         <v>0.16123</v>
@@ -12000,7 +12000,7 @@
         <v>0.03725</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0696060481254579</v>
+        <v>0.06961614418722251</v>
       </c>
       <c r="H144" t="n">
         <v>0.4012</v>
@@ -12011,7 +12011,7 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>0.00143</v>
+        <v>0.00149</v>
       </c>
       <c r="M144" t="n">
         <v>0.16123</v>
@@ -12154,7 +12154,7 @@
         <v>0.0465</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0787005212051631</v>
+        <v>0.07869863884091351</v>
       </c>
       <c r="H146" t="n">
         <v>0.401</v>
@@ -12165,7 +12165,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.00536</v>
+        <v>0.0054</v>
       </c>
       <c r="M146" t="n">
         <v>0.175</v>
@@ -12231,7 +12231,7 @@
         <v>0.0465</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0787005212051631</v>
+        <v>0.07869863884091351</v>
       </c>
       <c r="H147" t="n">
         <v>0.401</v>
@@ -12242,7 +12242,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.00536</v>
+        <v>0.0054</v>
       </c>
       <c r="M147" t="n">
         <v>0.175</v>
@@ -12308,7 +12308,7 @@
         <v>0.15</v>
       </c>
       <c r="G148" t="n">
-        <v>0.208779450473305</v>
+        <v>0.208793267506994</v>
       </c>
       <c r="H148" t="n">
         <v>1.838</v>
@@ -12385,7 +12385,7 @@
         <v>0.15</v>
       </c>
       <c r="G149" t="n">
-        <v>0.208779450473305</v>
+        <v>0.208793267506994</v>
       </c>
       <c r="H149" t="n">
         <v>1.838</v>
@@ -12859,7 +12859,7 @@
         <v>0.015</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0150517297674796</v>
+        <v>0.0150528896867585</v>
       </c>
       <c r="H155" t="n">
         <v>0.037</v>
@@ -12940,7 +12940,7 @@
         <v>0.015</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0150517297674796</v>
+        <v>0.0150528896867585</v>
       </c>
       <c r="H156" t="n">
         <v>0.037</v>
@@ -13021,13 +13021,13 @@
         <v>93</v>
       </c>
       <c r="G157" t="n">
-        <v>477.796507018187</v>
+        <v>501.054746338086</v>
       </c>
       <c r="H157" t="n">
         <v>6900</v>
       </c>
       <c r="I157" t="n">
-        <v>2471.79665</v>
+        <v>3226.52652</v>
       </c>
       <c r="J157" t="n">
         <v>16.9491525423729</v>
@@ -13106,13 +13106,13 @@
         <v>93</v>
       </c>
       <c r="G158" t="n">
-        <v>477.796507018187</v>
+        <v>501.054746338086</v>
       </c>
       <c r="H158" t="n">
         <v>6900</v>
       </c>
       <c r="I158" t="n">
-        <v>2471.79665</v>
+        <v>3226.52652</v>
       </c>
       <c r="J158" t="n">
         <v>16.9491525423729</v>
@@ -13191,13 +13191,13 @@
         <v>93</v>
       </c>
       <c r="G159" t="n">
-        <v>477.796507018187</v>
+        <v>501.054746338086</v>
       </c>
       <c r="H159" t="n">
         <v>6900</v>
       </c>
       <c r="I159" t="n">
-        <v>2471.79665</v>
+        <v>3226.52652</v>
       </c>
       <c r="J159" t="n">
         <v>16.9491525423729</v>
@@ -13276,13 +13276,13 @@
         <v>93</v>
       </c>
       <c r="G160" t="n">
-        <v>477.796507018187</v>
+        <v>501.054746338086</v>
       </c>
       <c r="H160" t="n">
         <v>6900</v>
       </c>
       <c r="I160" t="n">
-        <v>2471.79665</v>
+        <v>3226.52652</v>
       </c>
       <c r="J160" t="n">
         <v>16.9491525423729</v>
@@ -13435,10 +13435,10 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.00175</v>
+        <v>0.00179</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0053166227831784</v>
+        <v>0.0053545286937255</v>
       </c>
       <c r="H162" t="n">
         <v>0.1</v>
@@ -13449,13 +13449,13 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>0.0017</v>
+        <v>0.00174</v>
       </c>
       <c r="M162" t="n">
         <v>0.00517</v>
       </c>
       <c r="N162" t="n">
-        <v>0.01261</v>
+        <v>0.01265</v>
       </c>
       <c r="O162" t="n">
         <v>1836791</v>
@@ -13516,10 +13516,10 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.00175</v>
+        <v>0.00179</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0053166227831784</v>
+        <v>0.0053545286937255</v>
       </c>
       <c r="H163" t="n">
         <v>0.1</v>
@@ -13530,13 +13530,13 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>0.0017</v>
+        <v>0.00174</v>
       </c>
       <c r="M163" t="n">
         <v>0.00517</v>
       </c>
       <c r="N163" t="n">
-        <v>0.01261</v>
+        <v>0.01265</v>
       </c>
       <c r="O163" t="n">
         <v>1836791</v>
@@ -13600,7 +13600,7 @@
         <v>0.0522</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07902996358586439</v>
+        <v>0.07904062968819819</v>
       </c>
       <c r="H164" t="n">
         <v>0.426</v>
@@ -13611,7 +13611,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
-        <v>0.00186</v>
+        <v>0.0019</v>
       </c>
       <c r="M164" t="n">
         <v>0.16437</v>
@@ -13681,7 +13681,7 @@
         <v>0.0522</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07902996358586439</v>
+        <v>0.07904062968819819</v>
       </c>
       <c r="H165" t="n">
         <v>0.426</v>
@@ -13692,7 +13692,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>0.00186</v>
+        <v>0.0019</v>
       </c>
       <c r="M165" t="n">
         <v>0.16437</v>
@@ -13835,7 +13835,7 @@
         <v>0.055</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08843385453849641</v>
+        <v>0.08843197217424691</v>
       </c>
       <c r="H167" t="n">
         <v>0.45</v>
@@ -13912,7 +13912,7 @@
         <v>0.055</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08843385453849641</v>
+        <v>0.08843197217424691</v>
       </c>
       <c r="H168" t="n">
         <v>0.45</v>
@@ -13989,7 +13989,7 @@
         <v>0.172</v>
       </c>
       <c r="G169" t="n">
-        <v>0.219096117139971</v>
+        <v>0.219109934173661</v>
       </c>
       <c r="H169" t="n">
         <v>1.04</v>
@@ -14066,7 +14066,7 @@
         <v>0.172</v>
       </c>
       <c r="G170" t="n">
-        <v>0.219096117139971</v>
+        <v>0.219109934173661</v>
       </c>
       <c r="H170" t="n">
         <v>1.04</v>
@@ -14540,7 +14540,7 @@
         <v>0.015</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0157350631008129</v>
+        <v>0.0157362230200919</v>
       </c>
       <c r="H176" t="n">
         <v>0.037</v>
@@ -14621,7 +14621,7 @@
         <v>0.015</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0157350631008129</v>
+        <v>0.0157362230200919</v>
       </c>
       <c r="H177" t="n">
         <v>0.037</v>
@@ -14702,13 +14702,13 @@
         <v>93</v>
       </c>
       <c r="G178" t="n">
-        <v>470.288032441915</v>
+        <v>493.546271761815</v>
       </c>
       <c r="H178" t="n">
         <v>6900</v>
       </c>
       <c r="I178" t="n">
-        <v>2471.79665</v>
+        <v>3226.52652</v>
       </c>
       <c r="J178" t="n">
         <v>16.9491525423729</v>
@@ -14787,13 +14787,13 @@
         <v>93</v>
       </c>
       <c r="G179" t="n">
-        <v>470.288032441915</v>
+        <v>493.546271761815</v>
       </c>
       <c r="H179" t="n">
         <v>6900</v>
       </c>
       <c r="I179" t="n">
-        <v>2471.79665</v>
+        <v>3226.52652</v>
       </c>
       <c r="J179" t="n">
         <v>16.9491525423729</v>
@@ -14872,13 +14872,13 @@
         <v>93</v>
       </c>
       <c r="G180" t="n">
-        <v>470.288032441915</v>
+        <v>493.546271761815</v>
       </c>
       <c r="H180" t="n">
         <v>6900</v>
       </c>
       <c r="I180" t="n">
-        <v>2471.79665</v>
+        <v>3226.52652</v>
       </c>
       <c r="J180" t="n">
         <v>16.9491525423729</v>
@@ -14957,13 +14957,13 @@
         <v>93</v>
       </c>
       <c r="G181" t="n">
-        <v>470.288032441915</v>
+        <v>493.546271761815</v>
       </c>
       <c r="H181" t="n">
         <v>6900</v>
       </c>
       <c r="I181" t="n">
-        <v>2471.79665</v>
+        <v>3226.52652</v>
       </c>
       <c r="J181" t="n">
         <v>16.9491525423729</v>
@@ -15116,10 +15116,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.00221</v>
+        <v>0.00226</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0054587586945505</v>
+        <v>0.0055235040619348</v>
       </c>
       <c r="H183" t="n">
         <v>0.1</v>
@@ -15130,13 +15130,13 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
-        <v>0.00175</v>
+        <v>0.00179</v>
       </c>
       <c r="M183" t="n">
-        <v>0.00548</v>
+        <v>0.00557</v>
       </c>
       <c r="N183" t="n">
-        <v>0.00753</v>
+        <v>0.00772</v>
       </c>
       <c r="O183" t="n">
         <v>1836791</v>
@@ -15197,10 +15197,10 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.00221</v>
+        <v>0.00226</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0054587586945505</v>
+        <v>0.0055235040619348</v>
       </c>
       <c r="H184" t="n">
         <v>0.1</v>
@@ -15211,13 +15211,13 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
-        <v>0.00175</v>
+        <v>0.00179</v>
       </c>
       <c r="M184" t="n">
-        <v>0.00548</v>
+        <v>0.00557</v>
       </c>
       <c r="N184" t="n">
-        <v>0.00753</v>
+        <v>0.00772</v>
       </c>
       <c r="O184" t="n">
         <v>1836791</v>
@@ -15281,7 +15281,7 @@
         <v>0.05</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08106990305113949</v>
+        <v>0.08108097386800101</v>
       </c>
       <c r="H185" t="n">
         <v>0.426</v>
@@ -15292,7 +15292,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>0.00281</v>
+        <v>0.00285</v>
       </c>
       <c r="M185" t="n">
         <v>0.16437</v>
@@ -15362,7 +15362,7 @@
         <v>0.05</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08106990305113949</v>
+        <v>0.08108097386800101</v>
       </c>
       <c r="H186" t="n">
         <v>0.426</v>
@@ -15373,7 +15373,7 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>0.00281</v>
+        <v>0.00285</v>
       </c>
       <c r="M186" t="n">
         <v>0.16437</v>
@@ -15516,7 +15516,7 @@
         <v>0.055</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09015052120516311</v>
+        <v>0.09014863884091361</v>
       </c>
       <c r="H188" t="n">
         <v>0.45</v>
@@ -15527,7 +15527,7 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
-        <v>0.01081</v>
+        <v>0.01074</v>
       </c>
       <c r="M188" t="n">
         <v>0.178</v>
@@ -15593,7 +15593,7 @@
         <v>0.055</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09015052120516311</v>
+        <v>0.09014863884091361</v>
       </c>
       <c r="H189" t="n">
         <v>0.45</v>
@@ -15604,7 +15604,7 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>0.01081</v>
+        <v>0.01074</v>
       </c>
       <c r="M189" t="n">
         <v>0.178</v>
@@ -15670,7 +15670,7 @@
         <v>0.175</v>
       </c>
       <c r="G190" t="n">
-        <v>0.220646117139971</v>
+        <v>0.220659934173661</v>
       </c>
       <c r="H190" t="n">
         <v>1.04</v>
@@ -15747,7 +15747,7 @@
         <v>0.175</v>
       </c>
       <c r="G191" t="n">
-        <v>0.220646117139971</v>
+        <v>0.220659934173661</v>
       </c>
       <c r="H191" t="n">
         <v>1.04</v>
@@ -16221,7 +16221,7 @@
         <v>0.015</v>
       </c>
       <c r="G197" t="n">
-        <v>0.014798369255064</v>
+        <v>0.0147995488339917</v>
       </c>
       <c r="H197" t="n">
         <v>0.037</v>
@@ -16302,7 +16302,7 @@
         <v>0.015</v>
       </c>
       <c r="G198" t="n">
-        <v>0.014798369255064</v>
+        <v>0.0147995488339917</v>
       </c>
       <c r="H198" t="n">
         <v>0.037</v>
@@ -16383,13 +16383,13 @@
         <v>93</v>
       </c>
       <c r="G199" t="n">
-        <v>477.861964035742</v>
+        <v>501.521207481846</v>
       </c>
       <c r="H199" t="n">
         <v>6900</v>
       </c>
       <c r="I199" t="n">
-        <v>2845.59635</v>
+        <v>3668.93802</v>
       </c>
       <c r="J199" t="n">
         <v>13.7931034482759</v>
@@ -16468,13 +16468,13 @@
         <v>93</v>
       </c>
       <c r="G200" t="n">
-        <v>477.861964035742</v>
+        <v>501.521207481846</v>
       </c>
       <c r="H200" t="n">
         <v>6900</v>
       </c>
       <c r="I200" t="n">
-        <v>2845.59635</v>
+        <v>3668.93802</v>
       </c>
       <c r="J200" t="n">
         <v>13.7931034482759</v>
@@ -16553,13 +16553,13 @@
         <v>93</v>
       </c>
       <c r="G201" t="n">
-        <v>477.861964035742</v>
+        <v>501.521207481846</v>
       </c>
       <c r="H201" t="n">
         <v>6900</v>
       </c>
       <c r="I201" t="n">
-        <v>2845.59635</v>
+        <v>3668.93802</v>
       </c>
       <c r="J201" t="n">
         <v>13.7931034482759</v>
@@ -16638,13 +16638,13 @@
         <v>93</v>
       </c>
       <c r="G202" t="n">
-        <v>477.861964035742</v>
+        <v>501.521207481846</v>
       </c>
       <c r="H202" t="n">
         <v>6900</v>
       </c>
       <c r="I202" t="n">
-        <v>2845.59635</v>
+        <v>3668.93802</v>
       </c>
       <c r="J202" t="n">
         <v>13.7931034482759</v>
@@ -16797,27 +16797,27 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0.00244</v>
+        <v>0.00251</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0046060447503506</v>
+        <v>0.0046686278861131</v>
       </c>
       <c r="H204" t="n">
         <v>0.1</v>
       </c>
       <c r="I204" t="n">
-        <v>0.00626</v>
+        <v>0.00645</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
-        <v>0.00237</v>
+        <v>0.00243</v>
       </c>
       <c r="M204" t="n">
-        <v>0.00514</v>
+        <v>0.00521</v>
       </c>
       <c r="N204" t="n">
-        <v>0.00578</v>
+        <v>0.00595</v>
       </c>
       <c r="O204" t="n">
         <v>1836791</v>
@@ -16878,27 +16878,27 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0.00244</v>
+        <v>0.00251</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0046060447503506</v>
+        <v>0.0046686278861131</v>
       </c>
       <c r="H205" t="n">
         <v>0.1</v>
       </c>
       <c r="I205" t="n">
-        <v>0.00626</v>
+        <v>0.00645</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>0.00237</v>
+        <v>0.00243</v>
       </c>
       <c r="M205" t="n">
-        <v>0.00514</v>
+        <v>0.00521</v>
       </c>
       <c r="N205" t="n">
-        <v>0.00578</v>
+        <v>0.00595</v>
       </c>
       <c r="O205" t="n">
         <v>1836791</v>
@@ -16962,7 +16962,7 @@
         <v>0.043</v>
       </c>
       <c r="G206" t="n">
-        <v>0.08280261650892751</v>
+        <v>0.0828114925671572</v>
       </c>
       <c r="H206" t="n">
         <v>0.426</v>
@@ -16973,7 +16973,7 @@
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
-        <v>0.00423</v>
+        <v>0.00424</v>
       </c>
       <c r="M206" t="n">
         <v>0.18094</v>
@@ -17043,7 +17043,7 @@
         <v>0.043</v>
       </c>
       <c r="G207" t="n">
-        <v>0.08280261650892751</v>
+        <v>0.0828114925671572</v>
       </c>
       <c r="H207" t="n">
         <v>0.426</v>
@@ -17054,7 +17054,7 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
-        <v>0.00423</v>
+        <v>0.00424</v>
       </c>
       <c r="M207" t="n">
         <v>0.18094</v>
@@ -17197,7 +17197,7 @@
         <v>0.051</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0897687137537969</v>
+        <v>0.0897641594621561</v>
       </c>
       <c r="H209" t="n">
         <v>0.45</v>
@@ -17208,7 +17208,7 @@
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
-        <v>0.01311</v>
+        <v>0.01304</v>
       </c>
       <c r="M209" t="n">
         <v>0.1897</v>
@@ -17274,7 +17274,7 @@
         <v>0.051</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0897687137537969</v>
+        <v>0.0897641594621561</v>
       </c>
       <c r="H210" t="n">
         <v>0.45</v>
@@ -17285,7 +17285,7 @@
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
-        <v>0.01311</v>
+        <v>0.01304</v>
       </c>
       <c r="M210" t="n">
         <v>0.1897</v>
@@ -17821,10 +17821,10 @@
         <v>1.325</v>
       </c>
       <c r="G217" t="n">
-        <v>2.12425113102724</v>
+        <v>2.20965010129773</v>
       </c>
       <c r="H217" t="n">
-        <v>11.9080633375253</v>
+        <v>16.6904056726728</v>
       </c>
       <c r="I217" t="n">
         <v>6.14</v>
@@ -18064,13 +18064,13 @@
         <v>110</v>
       </c>
       <c r="G220" t="n">
-        <v>557.086101966776</v>
+        <v>580.745345412881</v>
       </c>
       <c r="H220" t="n">
         <v>6900</v>
       </c>
       <c r="I220" t="n">
-        <v>3045.59635</v>
+        <v>3868.93802</v>
       </c>
       <c r="J220" t="n">
         <v>20.6896551724138</v>
@@ -18149,13 +18149,13 @@
         <v>110</v>
       </c>
       <c r="G221" t="n">
-        <v>557.086101966776</v>
+        <v>580.745345412881</v>
       </c>
       <c r="H221" t="n">
         <v>6900</v>
       </c>
       <c r="I221" t="n">
-        <v>3045.59635</v>
+        <v>3868.93802</v>
       </c>
       <c r="J221" t="n">
         <v>20.6896551724138</v>
@@ -18234,13 +18234,13 @@
         <v>110</v>
       </c>
       <c r="G222" t="n">
-        <v>557.086101966776</v>
+        <v>580.745345412881</v>
       </c>
       <c r="H222" t="n">
         <v>6900</v>
       </c>
       <c r="I222" t="n">
-        <v>3045.59635</v>
+        <v>3868.93802</v>
       </c>
       <c r="J222" t="n">
         <v>20.6896551724138</v>
@@ -18319,13 +18319,13 @@
         <v>110</v>
       </c>
       <c r="G223" t="n">
-        <v>557.086101966776</v>
+        <v>580.745345412881</v>
       </c>
       <c r="H223" t="n">
         <v>6900</v>
       </c>
       <c r="I223" t="n">
-        <v>3045.59635</v>
+        <v>3868.93802</v>
       </c>
       <c r="J223" t="n">
         <v>20.6896551724138</v>
@@ -18478,27 +18478,27 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0.00247</v>
+        <v>0.00253</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0044834011070682</v>
+        <v>0.0045346711585046</v>
       </c>
       <c r="H225" t="n">
         <v>0.1</v>
       </c>
       <c r="I225" t="n">
-        <v>0.00583</v>
+        <v>0.00603</v>
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
-        <v>0.00237</v>
+        <v>0.00243</v>
       </c>
       <c r="M225" t="n">
-        <v>0.00485</v>
+        <v>0.00498</v>
       </c>
       <c r="N225" t="n">
-        <v>0.00573</v>
+        <v>0.00588</v>
       </c>
       <c r="O225" t="n">
         <v>1836791</v>
@@ -18559,27 +18559,27 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0.00247</v>
+        <v>0.00253</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0044834011070682</v>
+        <v>0.0045346711585046</v>
       </c>
       <c r="H226" t="n">
         <v>0.1</v>
       </c>
       <c r="I226" t="n">
-        <v>0.00583</v>
+        <v>0.00603</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
-        <v>0.00237</v>
+        <v>0.00243</v>
       </c>
       <c r="M226" t="n">
-        <v>0.00485</v>
+        <v>0.00498</v>
       </c>
       <c r="N226" t="n">
-        <v>0.00573</v>
+        <v>0.00588</v>
       </c>
       <c r="O226" t="n">
         <v>1836791</v>
@@ -18643,7 +18643,7 @@
         <v>0.043</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0790649808001362</v>
+        <v>0.0790669387882301</v>
       </c>
       <c r="H227" t="n">
         <v>0.426</v>
@@ -18724,7 +18724,7 @@
         <v>0.043</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0790649808001362</v>
+        <v>0.0790669387882301</v>
       </c>
       <c r="H228" t="n">
         <v>0.426</v>
@@ -18878,7 +18878,7 @@
         <v>0.051</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0857388686509427</v>
+        <v>0.0857387893443219</v>
       </c>
       <c r="H230" t="n">
         <v>0.45</v>
@@ -18955,7 +18955,7 @@
         <v>0.051</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0857388686509427</v>
+        <v>0.0857387893443219</v>
       </c>
       <c r="H231" t="n">
         <v>0.45</v>
@@ -19502,10 +19502,10 @@
         <v>1.4</v>
       </c>
       <c r="G238" t="n">
-        <v>2.06977477995331</v>
+        <v>2.16000765420137</v>
       </c>
       <c r="H238" t="n">
-        <v>11.9080633375253</v>
+        <v>16.6904056726728</v>
       </c>
       <c r="I238" t="n">
         <v>6.17</v>
@@ -19745,13 +19745,13 @@
         <v>113</v>
       </c>
       <c r="G241" t="n">
-        <v>622.186337526661</v>
+        <v>645.4445768465609</v>
       </c>
       <c r="H241" t="n">
         <v>6900</v>
       </c>
       <c r="I241" t="n">
-        <v>4129.19726</v>
+        <v>4801.52652</v>
       </c>
       <c r="J241" t="n">
         <v>20.3389830508475</v>
@@ -19830,13 +19830,13 @@
         <v>113</v>
       </c>
       <c r="G242" t="n">
-        <v>622.186337526661</v>
+        <v>645.4445768465609</v>
       </c>
       <c r="H242" t="n">
         <v>6900</v>
       </c>
       <c r="I242" t="n">
-        <v>4129.19726</v>
+        <v>4801.52652</v>
       </c>
       <c r="J242" t="n">
         <v>20.3389830508475</v>
@@ -19915,13 +19915,13 @@
         <v>113</v>
       </c>
       <c r="G243" t="n">
-        <v>622.186337526661</v>
+        <v>645.4445768465609</v>
       </c>
       <c r="H243" t="n">
         <v>6900</v>
       </c>
       <c r="I243" t="n">
-        <v>4129.19726</v>
+        <v>4801.52652</v>
       </c>
       <c r="J243" t="n">
         <v>20.3389830508475</v>
@@ -20000,13 +20000,13 @@
         <v>113</v>
       </c>
       <c r="G244" t="n">
-        <v>622.186337526661</v>
+        <v>645.4445768465609</v>
       </c>
       <c r="H244" t="n">
         <v>6900</v>
       </c>
       <c r="I244" t="n">
-        <v>4129.19726</v>
+        <v>4801.52652</v>
       </c>
       <c r="J244" t="n">
         <v>20.3389830508475</v>
@@ -20159,10 +20159,10 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0.00297</v>
+        <v>0.00306</v>
       </c>
       <c r="G246" t="n">
-        <v>0.0054590344745594</v>
+        <v>0.0055001089389823</v>
       </c>
       <c r="H246" t="n">
         <v>0.1</v>
@@ -20173,13 +20173,13 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
-        <v>0.00259</v>
+        <v>0.00267</v>
       </c>
       <c r="M246" t="n">
-        <v>0.00529</v>
+        <v>0.00544</v>
       </c>
       <c r="N246" t="n">
-        <v>0.00637</v>
+        <v>0.00656</v>
       </c>
       <c r="O246" t="n">
         <v>1836791</v>
@@ -20240,10 +20240,10 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>0.00297</v>
+        <v>0.00306</v>
       </c>
       <c r="G247" t="n">
-        <v>0.0054590344745594</v>
+        <v>0.0055001089389823</v>
       </c>
       <c r="H247" t="n">
         <v>0.1</v>
@@ -20254,13 +20254,13 @@
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
-        <v>0.00259</v>
+        <v>0.00267</v>
       </c>
       <c r="M247" t="n">
-        <v>0.00529</v>
+        <v>0.00544</v>
       </c>
       <c r="N247" t="n">
-        <v>0.00637</v>
+        <v>0.00656</v>
       </c>
       <c r="O247" t="n">
         <v>1836791</v>
@@ -20324,7 +20324,7 @@
         <v>0.042</v>
       </c>
       <c r="G248" t="n">
-        <v>0.0829951619992812</v>
+        <v>0.0829955599351215</v>
       </c>
       <c r="H248" t="n">
         <v>0.426</v>
@@ -20405,7 +20405,7 @@
         <v>0.042</v>
       </c>
       <c r="G249" t="n">
-        <v>0.0829951619992812</v>
+        <v>0.0829955599351215</v>
       </c>
       <c r="H249" t="n">
         <v>0.426</v>
@@ -20559,7 +20559,7 @@
         <v>0.055</v>
       </c>
       <c r="G251" t="n">
-        <v>0.09007451924770429</v>
+        <v>0.0900785813828328</v>
       </c>
       <c r="H251" t="n">
         <v>0.45</v>
@@ -20636,7 +20636,7 @@
         <v>0.055</v>
       </c>
       <c r="G252" t="n">
-        <v>0.09007451924770429</v>
+        <v>0.0900785813828328</v>
       </c>
       <c r="H252" t="n">
         <v>0.45</v>
@@ -20995,6 +20995,1687 @@
         </is>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.4996</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.54055</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="O257" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P257" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G258" t="n">
+        <v>6.62487314610563</v>
+      </c>
+      <c r="H258" t="n">
+        <v>45</v>
+      </c>
+      <c r="I258" t="n">
+        <v>29.125</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M258" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="N258" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="O258" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P258" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G259" t="n">
+        <v>2.07320811345346</v>
+      </c>
+      <c r="H259" t="n">
+        <v>16.6904056726728</v>
+      </c>
+      <c r="I259" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M259" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="N259" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P259" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.0143389830508475</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.02255</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.01847</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="O260" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P260" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.0143389830508475</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.02255</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.01847</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="O261" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P261" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>120</v>
+      </c>
+      <c r="G262" t="n">
+        <v>358.830508474576</v>
+      </c>
+      <c r="H262" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1655</v>
+      </c>
+      <c r="J262" t="n">
+        <v>16.9491525423729</v>
+      </c>
+      <c r="K262" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="L262" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M262" t="n">
+        <v>504.35</v>
+      </c>
+      <c r="N262" t="n">
+        <v>971.76</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P262" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>120</v>
+      </c>
+      <c r="G263" t="n">
+        <v>358.830508474576</v>
+      </c>
+      <c r="H263" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1655</v>
+      </c>
+      <c r="J263" t="n">
+        <v>16.9491525423729</v>
+      </c>
+      <c r="K263" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="L263" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M263" t="n">
+        <v>504.35</v>
+      </c>
+      <c r="N263" t="n">
+        <v>971.76</v>
+      </c>
+      <c r="O263" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P263" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>120</v>
+      </c>
+      <c r="G264" t="n">
+        <v>358.830508474576</v>
+      </c>
+      <c r="H264" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1655</v>
+      </c>
+      <c r="J264" t="n">
+        <v>16.9491525423729</v>
+      </c>
+      <c r="K264" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="L264" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M264" t="n">
+        <v>504.35</v>
+      </c>
+      <c r="N264" t="n">
+        <v>971.76</v>
+      </c>
+      <c r="O264" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P264" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>120</v>
+      </c>
+      <c r="G265" t="n">
+        <v>358.830508474576</v>
+      </c>
+      <c r="H265" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1655</v>
+      </c>
+      <c r="J265" t="n">
+        <v>16.9491525423729</v>
+      </c>
+      <c r="K265" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="L265" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="M265" t="n">
+        <v>504.35</v>
+      </c>
+      <c r="N265" t="n">
+        <v>971.76</v>
+      </c>
+      <c r="O265" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P265" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>114.29</v>
+      </c>
+      <c r="G266" t="n">
+        <v>114.958</v>
+      </c>
+      <c r="H266" t="n">
+        <v>133</v>
+      </c>
+      <c r="I266" t="n">
+        <v>133</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>114.29</v>
+      </c>
+      <c r="M266" t="n">
+        <v>127.75</v>
+      </c>
+      <c r="N266" t="n">
+        <v>133</v>
+      </c>
+      <c r="O266" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P266" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>0.00295</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.0035926778308631</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0.0453039072987963</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.00665</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>0.00217</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0.00594</v>
+      </c>
+      <c r="O267" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P267" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>0.00295</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.0035926778308631</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0.0453039072987963</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.00665</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>0.00217</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0.00594</v>
+      </c>
+      <c r="O268" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P268" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.075667162885886</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0.23455</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0.14341</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="O269" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P269" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.075667162885886</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0.23455</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0.14341</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="O270" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P270" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="G271" t="n">
+        <v>6.592</v>
+      </c>
+      <c r="H271" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="I271" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="M271" t="n">
+        <v>7.104</v>
+      </c>
+      <c r="N271" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="O271" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P271" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.08196841189130739</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0.2442</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0.14918</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0.23502</v>
+      </c>
+      <c r="O272" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P272" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.08196841189130739</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0.2442</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0.14918</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0.23502</v>
+      </c>
+      <c r="O273" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P273" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.212542372881356</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O274" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P274" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.212542372881356</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O275" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P275" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.0619830508474576</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.20905</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>0.0275</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0.08893</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0.1818</v>
+      </c>
+      <c r="O276" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P276" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Pohangina at Mais Reach</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0619830508474576</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0.20905</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>0.0275</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0.08893</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0.1818</v>
+      </c>
+      <c r="O277" t="n">
+        <v>1836791</v>
+      </c>
+      <c r="P277" t="n">
+        <v>5543601</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>Mana_10c</t>
+        </is>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/PohanginaatMaisReach_69c9d4f609.xlsx
+++ b/state_results/Rivers/PohanginaatMaisReach_69c9d4f609.xlsx
@@ -570,10 +570,10 @@
         <v>1.335</v>
       </c>
       <c r="G2" t="n">
-        <v>1.94823620226522</v>
+        <v>1.95237162992043</v>
       </c>
       <c r="H2" t="n">
-        <v>12.4972837741906</v>
+        <v>12.7288677228822</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
@@ -1631,13 +1631,13 @@
         <v>1.35</v>
       </c>
       <c r="G15" t="n">
-        <v>2.22808141756137</v>
+        <v>2.11387025484958</v>
       </c>
       <c r="H15" t="n">
-        <v>12.4972837741906</v>
+        <v>12.7288677228822</v>
       </c>
       <c r="I15" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -3000,13 +3000,13 @@
         <v>1.1</v>
       </c>
       <c r="G32" t="n">
-        <v>2.16913000021121</v>
+        <v>2.03213011688053</v>
       </c>
       <c r="H32" t="n">
-        <v>12.4972837741906</v>
+        <v>12.7288677228822</v>
       </c>
       <c r="I32" t="n">
-        <v>5.85</v>
+        <v>5</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -4450,13 +4450,13 @@
         <v>1.1</v>
       </c>
       <c r="G50" t="n">
-        <v>2.01046005638124</v>
+        <v>1.86326550049695</v>
       </c>
       <c r="H50" t="n">
-        <v>10.9429499390007</v>
+        <v>8.40577755405546</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>4.985</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -4467,7 +4467,7 @@
         <v>3.662</v>
       </c>
       <c r="N50" t="n">
-        <v>4.901</v>
+        <v>4.79877</v>
       </c>
       <c r="O50" t="n">
         <v>1836791</v>
@@ -6051,16 +6051,16 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="G70" t="n">
-        <v>2.24150863126172</v>
+        <v>2.08530216379268</v>
       </c>
       <c r="H70" t="n">
-        <v>10.9429499390007</v>
+        <v>8.40577755405546</v>
       </c>
       <c r="I70" t="n">
-        <v>6.12837</v>
+        <v>5.05</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -6071,7 +6071,7 @@
         <v>4.0085</v>
       </c>
       <c r="N70" t="n">
-        <v>5</v>
+        <v>4.937</v>
       </c>
       <c r="O70" t="n">
         <v>1836791</v>
@@ -7732,16 +7732,16 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="G91" t="n">
-        <v>2.92508172774634</v>
+        <v>2.7656209588717</v>
       </c>
       <c r="H91" t="n">
         <v>11.9</v>
       </c>
       <c r="I91" t="n">
-        <v>11.01865</v>
+        <v>8.735200000000001</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -7749,10 +7749,10 @@
         <v>3.625</v>
       </c>
       <c r="M91" t="n">
-        <v>5.34</v>
+        <v>4.901</v>
       </c>
       <c r="N91" t="n">
-        <v>7.91543</v>
+        <v>6.599</v>
       </c>
       <c r="O91" t="n">
         <v>1836791</v>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -9413,16 +9413,16 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G112" t="n">
-        <v>3.05185659169028</v>
+        <v>3.02158001013358</v>
       </c>
       <c r="H112" t="n">
         <v>11.9</v>
       </c>
       <c r="I112" t="n">
-        <v>8.72395</v>
+        <v>8.570489999999999</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -11097,13 +11097,13 @@
         <v>2.2</v>
       </c>
       <c r="G133" t="n">
-        <v>3.06688401418002</v>
+        <v>3.06358729702154</v>
       </c>
       <c r="H133" t="n">
         <v>11.9</v>
       </c>
       <c r="I133" t="n">
-        <v>8.72395</v>
+        <v>8.570489999999999</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -13021,13 +13021,13 @@
         <v>93</v>
       </c>
       <c r="G157" t="n">
-        <v>501.054746338086</v>
+        <v>482.602563959141</v>
       </c>
       <c r="H157" t="n">
         <v>6900</v>
       </c>
       <c r="I157" t="n">
-        <v>3226.52652</v>
+        <v>2627.7532</v>
       </c>
       <c r="J157" t="n">
         <v>16.9491525423729</v>
@@ -13106,13 +13106,13 @@
         <v>93</v>
       </c>
       <c r="G158" t="n">
-        <v>501.054746338086</v>
+        <v>482.602563959141</v>
       </c>
       <c r="H158" t="n">
         <v>6900</v>
       </c>
       <c r="I158" t="n">
-        <v>3226.52652</v>
+        <v>2627.7532</v>
       </c>
       <c r="J158" t="n">
         <v>16.9491525423729</v>
@@ -13191,13 +13191,13 @@
         <v>93</v>
       </c>
       <c r="G159" t="n">
-        <v>501.054746338086</v>
+        <v>482.602563959141</v>
       </c>
       <c r="H159" t="n">
         <v>6900</v>
       </c>
       <c r="I159" t="n">
-        <v>3226.52652</v>
+        <v>2627.7532</v>
       </c>
       <c r="J159" t="n">
         <v>16.9491525423729</v>
@@ -13276,13 +13276,13 @@
         <v>93</v>
       </c>
       <c r="G160" t="n">
-        <v>501.054746338086</v>
+        <v>482.602563959141</v>
       </c>
       <c r="H160" t="n">
         <v>6900</v>
       </c>
       <c r="I160" t="n">
-        <v>3226.52652</v>
+        <v>2627.7532</v>
       </c>
       <c r="J160" t="n">
         <v>16.9491525423729</v>
@@ -14702,13 +14702,13 @@
         <v>93</v>
       </c>
       <c r="G178" t="n">
-        <v>493.546271761815</v>
+        <v>475.09408938287</v>
       </c>
       <c r="H178" t="n">
         <v>6900</v>
       </c>
       <c r="I178" t="n">
-        <v>3226.52652</v>
+        <v>2627.7532</v>
       </c>
       <c r="J178" t="n">
         <v>16.9491525423729</v>
@@ -14787,13 +14787,13 @@
         <v>93</v>
       </c>
       <c r="G179" t="n">
-        <v>493.546271761815</v>
+        <v>475.09408938287</v>
       </c>
       <c r="H179" t="n">
         <v>6900</v>
       </c>
       <c r="I179" t="n">
-        <v>3226.52652</v>
+        <v>2627.7532</v>
       </c>
       <c r="J179" t="n">
         <v>16.9491525423729</v>
@@ -14872,13 +14872,13 @@
         <v>93</v>
       </c>
       <c r="G180" t="n">
-        <v>493.546271761815</v>
+        <v>475.09408938287</v>
       </c>
       <c r="H180" t="n">
         <v>6900</v>
       </c>
       <c r="I180" t="n">
-        <v>3226.52652</v>
+        <v>2627.7532</v>
       </c>
       <c r="J180" t="n">
         <v>16.9491525423729</v>
@@ -14957,13 +14957,13 @@
         <v>93</v>
       </c>
       <c r="G181" t="n">
-        <v>493.546271761815</v>
+        <v>475.09408938287</v>
       </c>
       <c r="H181" t="n">
         <v>6900</v>
       </c>
       <c r="I181" t="n">
-        <v>3226.52652</v>
+        <v>2627.7532</v>
       </c>
       <c r="J181" t="n">
         <v>16.9491525423729</v>
@@ -16383,13 +16383,13 @@
         <v>93</v>
       </c>
       <c r="G199" t="n">
-        <v>501.521207481846</v>
+        <v>482.750884027403</v>
       </c>
       <c r="H199" t="n">
         <v>6900</v>
       </c>
       <c r="I199" t="n">
-        <v>3668.93802</v>
+        <v>3015.73076</v>
       </c>
       <c r="J199" t="n">
         <v>13.7931034482759</v>
@@ -16468,13 +16468,13 @@
         <v>93</v>
       </c>
       <c r="G200" t="n">
-        <v>501.521207481846</v>
+        <v>482.750884027403</v>
       </c>
       <c r="H200" t="n">
         <v>6900</v>
       </c>
       <c r="I200" t="n">
-        <v>3668.93802</v>
+        <v>3015.73076</v>
       </c>
       <c r="J200" t="n">
         <v>13.7931034482759</v>
@@ -16553,13 +16553,13 @@
         <v>93</v>
       </c>
       <c r="G201" t="n">
-        <v>501.521207481846</v>
+        <v>482.750884027403</v>
       </c>
       <c r="H201" t="n">
         <v>6900</v>
       </c>
       <c r="I201" t="n">
-        <v>3668.93802</v>
+        <v>3015.73076</v>
       </c>
       <c r="J201" t="n">
         <v>13.7931034482759</v>
@@ -16638,13 +16638,13 @@
         <v>93</v>
       </c>
       <c r="G202" t="n">
-        <v>501.521207481846</v>
+        <v>482.750884027403</v>
       </c>
       <c r="H202" t="n">
         <v>6900</v>
       </c>
       <c r="I202" t="n">
-        <v>3668.93802</v>
+        <v>3015.73076</v>
       </c>
       <c r="J202" t="n">
         <v>13.7931034482759</v>
@@ -17821,10 +17821,10 @@
         <v>1.325</v>
       </c>
       <c r="G217" t="n">
-        <v>2.20965010129773</v>
+        <v>2.07320023094841</v>
       </c>
       <c r="H217" t="n">
-        <v>16.6904056726728</v>
+        <v>9.04921293311105</v>
       </c>
       <c r="I217" t="n">
         <v>6.14</v>
@@ -18064,13 +18064,13 @@
         <v>110</v>
       </c>
       <c r="G220" t="n">
-        <v>580.745345412881</v>
+        <v>561.975021958437</v>
       </c>
       <c r="H220" t="n">
         <v>6900</v>
       </c>
       <c r="I220" t="n">
-        <v>3868.93802</v>
+        <v>3215.73076</v>
       </c>
       <c r="J220" t="n">
         <v>20.6896551724138</v>
@@ -18149,13 +18149,13 @@
         <v>110</v>
       </c>
       <c r="G221" t="n">
-        <v>580.745345412881</v>
+        <v>561.975021958437</v>
       </c>
       <c r="H221" t="n">
         <v>6900</v>
       </c>
       <c r="I221" t="n">
-        <v>3868.93802</v>
+        <v>3215.73076</v>
       </c>
       <c r="J221" t="n">
         <v>20.6896551724138</v>
@@ -18234,13 +18234,13 @@
         <v>110</v>
       </c>
       <c r="G222" t="n">
-        <v>580.745345412881</v>
+        <v>561.975021958437</v>
       </c>
       <c r="H222" t="n">
         <v>6900</v>
       </c>
       <c r="I222" t="n">
-        <v>3868.93802</v>
+        <v>3215.73076</v>
       </c>
       <c r="J222" t="n">
         <v>20.6896551724138</v>
@@ -18319,13 +18319,13 @@
         <v>110</v>
       </c>
       <c r="G223" t="n">
-        <v>580.745345412881</v>
+        <v>561.975021958437</v>
       </c>
       <c r="H223" t="n">
         <v>6900</v>
       </c>
       <c r="I223" t="n">
-        <v>3868.93802</v>
+        <v>3215.73076</v>
       </c>
       <c r="J223" t="n">
         <v>20.6896551724138</v>
@@ -19502,10 +19502,10 @@
         <v>1.4</v>
       </c>
       <c r="G238" t="n">
-        <v>2.16000765420137</v>
+        <v>2.01583420628511</v>
       </c>
       <c r="H238" t="n">
-        <v>16.6904056726728</v>
+        <v>9.04921293311105</v>
       </c>
       <c r="I238" t="n">
         <v>6.17</v>
@@ -19745,13 +19745,13 @@
         <v>113</v>
       </c>
       <c r="G241" t="n">
-        <v>645.4445768465609</v>
+        <v>626.992394467616</v>
       </c>
       <c r="H241" t="n">
         <v>6900</v>
       </c>
       <c r="I241" t="n">
-        <v>4801.52652</v>
+        <v>4256.79807</v>
       </c>
       <c r="J241" t="n">
         <v>20.3389830508475</v>
@@ -19830,13 +19830,13 @@
         <v>113</v>
       </c>
       <c r="G242" t="n">
-        <v>645.4445768465609</v>
+        <v>626.992394467616</v>
       </c>
       <c r="H242" t="n">
         <v>6900</v>
       </c>
       <c r="I242" t="n">
-        <v>4801.52652</v>
+        <v>4256.79807</v>
       </c>
       <c r="J242" t="n">
         <v>20.3389830508475</v>
@@ -19915,13 +19915,13 @@
         <v>113</v>
       </c>
       <c r="G243" t="n">
-        <v>645.4445768465609</v>
+        <v>626.992394467616</v>
       </c>
       <c r="H243" t="n">
         <v>6900</v>
       </c>
       <c r="I243" t="n">
-        <v>4801.52652</v>
+        <v>4256.79807</v>
       </c>
       <c r="J243" t="n">
         <v>20.3389830508475</v>
@@ -20000,13 +20000,13 @@
         <v>113</v>
       </c>
       <c r="G244" t="n">
-        <v>645.4445768465609</v>
+        <v>626.992394467616</v>
       </c>
       <c r="H244" t="n">
         <v>6900</v>
       </c>
       <c r="I244" t="n">
-        <v>4801.52652</v>
+        <v>4256.79807</v>
       </c>
       <c r="J244" t="n">
         <v>20.3389830508475</v>
@@ -21183,10 +21183,10 @@
         <v>0.7</v>
       </c>
       <c r="G259" t="n">
-        <v>2.07320811345346</v>
+        <v>1.92038425866222</v>
       </c>
       <c r="H259" t="n">
-        <v>16.6904056726728</v>
+        <v>9.04921293311105</v>
       </c>
       <c r="I259" t="n">
         <v>6.2</v>
